--- a/models/evaluation/output/codegpt_base-test-humaneval.xlsx
+++ b/models/evaluation/output/codegpt_base-test-humaneval.xlsx
@@ -542,7 +542,8 @@
           <t>functions
 complete
 parameter(s)
-argument(s)body</t>
+argument(s)
+body</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -551,7 +552,8 @@
 ++
 :
 !!
-list comprehension</t>
+list comprehension
+range</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -585,7 +587,8 @@
         <is>
           <t>case expressions
 complete
-parameter(s), argument(s)</t>
+parameter(s)
+argument(s)</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">

--- a/models/evaluation/output/codegpt_base-test-humaneval.xlsx
+++ b/models/evaluation/output/codegpt_base-test-humaneval.xlsx
@@ -463,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q604"/>
+  <dimension ref="A1:R604"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -475,7 +475,6 @@
     <col width="125" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
     <col width="20" customWidth="1" min="9" max="9"/>
     <col width="20" customWidth="1" min="10" max="10"/>
@@ -484,7 +483,8 @@
     <col width="20" customWidth="1" min="13" max="13"/>
     <col width="20" customWidth="1" min="14" max="14"/>
     <col width="20" customWidth="1" min="15" max="15"/>
-    <col width="100" customWidth="1" min="17" max="17"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="100" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -513,8 +513,13 @@
           <t>ES</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr"/>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>OL</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr"/>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>if/then/else
 all
@@ -523,21 +528,21 @@
 else</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>generators
 complete
 body</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>guards (= |)
 complete
 body</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>functions
 complete
@@ -546,7 +551,7 @@
 body</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>lists
 ++
@@ -556,7 +561,7 @@
 range</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>logical operators
 all
@@ -571,7 +576,7 @@
 not</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>arithmetic operators
 all
@@ -583,7 +588,7 @@
 mod</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>case expressions
 complete
@@ -591,7 +596,7 @@
 argument(s)</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>other
 variable name
@@ -599,8 +604,8 @@
 wrong value</t>
         </is>
       </c>
-      <c r="P1" s="2" t="inlineStr"/>
-      <c r="Q1" s="3" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr"/>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>other comments</t>
         </is>
@@ -635,6 +640,11 @@
       <c r="E2" s="6" t="n">
         <v>0.04</v>
       </c>
+      <c r="F2" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
@@ -664,6 +674,11 @@
       </c>
       <c r="E3" s="6" t="n">
         <v>0.26</v>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -706,6 +721,11 @@
       <c r="E4" s="6" t="n">
         <v>0.14</v>
       </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
@@ -747,6 +767,11 @@
       <c r="E5" s="6" t="n">
         <v>0.04</v>
       </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
@@ -784,6 +809,11 @@
       <c r="E6" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
@@ -825,6 +855,11 @@
       <c r="E7" s="6" t="n">
         <v>0.2</v>
       </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -858,6 +893,11 @@
       <c r="E8" s="6" t="n">
         <v>0.58</v>
       </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -891,6 +931,11 @@
       <c r="E9" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -924,6 +969,11 @@
       <c r="E10" s="6" t="n">
         <v>0.04</v>
       </c>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -950,6 +1000,11 @@
       </c>
       <c r="E11" s="6" t="n">
         <v>0.44</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -980,6 +1035,11 @@
       </c>
       <c r="E12" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1020,6 +1080,11 @@
       <c r="E13" s="6" t="n">
         <v>0.7</v>
       </c>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
@@ -1055,6 +1120,11 @@
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
@@ -1089,6 +1159,11 @@
       <c r="E15" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -1122,6 +1197,11 @@
       </c>
       <c r="E16" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1172,6 +1252,11 @@
       <c r="E17" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -1211,6 +1296,11 @@
       </c>
       <c r="E18" s="6" t="n">
         <v>0.29</v>
+      </c>
+      <c r="F18" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1256,6 +1346,11 @@
       <c r="E19" s="6" t="n">
         <v>0.13</v>
       </c>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -1295,6 +1390,11 @@
       </c>
       <c r="E20" s="6" t="n">
         <v>0.15</v>
+      </c>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1341,6 +1441,11 @@
       <c r="E21" s="6" t="n">
         <v>0.15</v>
       </c>
+      <c r="F21" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
@@ -1379,6 +1484,11 @@
       <c r="E22" s="6" t="n">
         <v>0.4</v>
       </c>
+      <c r="F22" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
@@ -1413,6 +1523,11 @@
       </c>
       <c r="E23" s="6" t="n">
         <v>0.18</v>
+      </c>
+      <c r="F23" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1449,6 +1564,11 @@
       </c>
       <c r="E24" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F24" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1486,6 +1606,11 @@
       </c>
       <c r="E25" s="6" t="n">
         <v>0.95</v>
+      </c>
+      <c r="F25" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1520,6 +1645,11 @@
       <c r="E26" s="6" t="n">
         <v>0.26</v>
       </c>
+      <c r="F26" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -1552,6 +1682,11 @@
       </c>
       <c r="E27" s="6" t="n">
         <v>0.18</v>
+      </c>
+      <c r="F27" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -1597,6 +1732,11 @@
       <c r="E28" s="6" t="n">
         <v>0.47</v>
       </c>
+      <c r="F28" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -1641,6 +1781,11 @@
       <c r="E29" s="6" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="F29" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -1683,6 +1828,11 @@
       </c>
       <c r="E30" s="6" t="n">
         <v>0.22</v>
+      </c>
+      <c r="F30" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -1728,6 +1878,11 @@
       <c r="E31" s="6" t="n">
         <v>0.3</v>
       </c>
+      <c r="F31" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -1768,6 +1923,11 @@
       <c r="E32" s="6" t="n">
         <v>0.23</v>
       </c>
+      <c r="F32" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
@@ -1819,6 +1979,11 @@
       </c>
       <c r="E33" s="6" t="n">
         <v>0.33</v>
+      </c>
+      <c r="F33" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -1876,6 +2041,11 @@
       <c r="E34" s="6" t="n">
         <v>0.23</v>
       </c>
+      <c r="F34" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
@@ -1925,6 +2095,11 @@
       </c>
       <c r="E35" s="6" t="n">
         <v>0.15</v>
+      </c>
+      <c r="F35" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -1986,6 +2161,11 @@
       <c r="E36" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="F36" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -2043,6 +2223,11 @@
       <c r="E37" s="6" t="n">
         <v>0.04</v>
       </c>
+      <c r="F37" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -2076,6 +2261,11 @@
       </c>
       <c r="E38" s="6" t="n">
         <v>0.29</v>
+      </c>
+      <c r="F38" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -2111,6 +2301,11 @@
       </c>
       <c r="E39" s="6" t="n">
         <v>0.31</v>
+      </c>
+      <c r="F39" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -2148,6 +2343,11 @@
       <c r="E40" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="F40" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
@@ -2183,6 +2383,11 @@
       </c>
       <c r="E41" s="6" t="n">
         <v>1</v>
+      </c>
+      <c r="F41" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -2220,6 +2425,11 @@
       </c>
       <c r="E42" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F42" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -2261,6 +2471,11 @@
       <c r="E43" s="6" t="n">
         <v>0.33</v>
       </c>
+      <c r="F43" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="inlineStr">
@@ -2301,6 +2516,11 @@
       <c r="E44" s="6" t="n">
         <v>0.18</v>
       </c>
+      <c r="F44" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="inlineStr">
@@ -2333,6 +2553,11 @@
       <c r="E45" s="6" t="n">
         <v>0.05</v>
       </c>
+      <c r="F45" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="inlineStr">
@@ -2360,6 +2585,11 @@
       <c r="E46" s="6" t="n">
         <v>0.36</v>
       </c>
+      <c r="F46" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="inlineStr">
@@ -2386,6 +2616,11 @@
       </c>
       <c r="E47" s="6" t="n">
         <v>0.5</v>
+      </c>
+      <c r="F47" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -2436,6 +2671,11 @@
       <c r="E48" s="6" t="n">
         <v>0.12</v>
       </c>
+      <c r="F48" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="inlineStr">
@@ -2484,6 +2724,11 @@
       <c r="E49" s="6" t="n">
         <v>0.12</v>
       </c>
+      <c r="F49" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="inlineStr">
@@ -2531,6 +2776,11 @@
       <c r="E50" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="F50" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="4" t="inlineStr">
@@ -2573,6 +2823,11 @@
       </c>
       <c r="E51" s="6" t="n">
         <v>0.42</v>
+      </c>
+      <c r="F51" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -2620,6 +2875,11 @@
       <c r="E52" s="6" t="n">
         <v>0.18</v>
       </c>
+      <c r="F52" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="4" t="inlineStr">
@@ -2660,6 +2920,11 @@
       <c r="E53" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F53" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="4" t="inlineStr">
@@ -2696,6 +2961,11 @@
       </c>
       <c r="E54" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F54" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -2740,6 +3010,11 @@
       <c r="E55" s="6" t="n">
         <v>0.98</v>
       </c>
+      <c r="F55" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="inlineStr">
@@ -2781,6 +3056,11 @@
       </c>
       <c r="E56" s="6" t="n">
         <v>0.09</v>
+      </c>
+      <c r="F56" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -2825,6 +3105,11 @@
       </c>
       <c r="E57" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F57" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -2868,6 +3153,11 @@
       </c>
       <c r="E58" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F58" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -2914,6 +3204,11 @@
       </c>
       <c r="E59" s="6" t="n">
         <v>0.12</v>
+      </c>
+      <c r="F59" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -2962,6 +3257,11 @@
       <c r="E60" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F60" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="4" t="inlineStr">
@@ -3009,6 +3309,11 @@
       <c r="E61" s="6" t="n">
         <v>0.27</v>
       </c>
+      <c r="F61" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="4" t="inlineStr">
@@ -3055,6 +3360,11 @@
       <c r="E62" s="6" t="n">
         <v>0.06</v>
       </c>
+      <c r="F62" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="4" t="inlineStr">
@@ -3101,6 +3411,11 @@
       <c r="E63" s="6" t="n">
         <v>0.04</v>
       </c>
+      <c r="F63" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="4" t="inlineStr">
@@ -3144,6 +3459,11 @@
       <c r="E64" s="6" t="n">
         <v>0.1</v>
       </c>
+      <c r="F64" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="4" t="inlineStr">
@@ -3187,6 +3507,11 @@
       <c r="E65" s="6" t="n">
         <v>0.21</v>
       </c>
+      <c r="F65" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="4" t="inlineStr">
@@ -3229,6 +3554,11 @@
       </c>
       <c r="E66" s="6" t="n">
         <v>0.39</v>
+      </c>
+      <c r="F66" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -3276,6 +3606,11 @@
       <c r="E67" s="6" t="n">
         <v>0.21</v>
       </c>
+      <c r="F67" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="4" t="inlineStr">
@@ -3316,6 +3651,11 @@
       <c r="E68" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F68" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="4" t="inlineStr">
@@ -3352,6 +3692,11 @@
       <c r="E69" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F69" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="4" t="inlineStr">
@@ -3392,6 +3737,11 @@
       <c r="E70" s="6" t="n">
         <v>0.27</v>
       </c>
+      <c r="F70" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="4" t="inlineStr">
@@ -3423,6 +3773,11 @@
       <c r="E71" s="6" t="n">
         <v>0.12</v>
       </c>
+      <c r="F71" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="4" t="inlineStr">
@@ -3450,6 +3805,11 @@
       <c r="E72" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F72" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="4" t="inlineStr">
@@ -3479,6 +3839,11 @@
       </c>
       <c r="E73" s="6" t="n">
         <v>0.07000000000000001</v>
+      </c>
+      <c r="F73" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -3510,6 +3875,11 @@
       </c>
       <c r="E74" s="6" t="n">
         <v>1</v>
+      </c>
+      <c r="F74" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -3574,6 +3944,11 @@
       <c r="E75" s="6" t="n">
         <v>0.13</v>
       </c>
+      <c r="F75" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="4" t="inlineStr">
@@ -3635,6 +4010,11 @@
       <c r="E76" s="6" t="n">
         <v>0.9</v>
       </c>
+      <c r="F76" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="4" t="inlineStr">
@@ -3688,6 +4068,11 @@
       </c>
       <c r="E77" s="6" t="n">
         <v>1</v>
+      </c>
+      <c r="F77" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -3749,6 +4134,11 @@
       </c>
       <c r="E78" s="6" t="n">
         <v>0.3</v>
+      </c>
+      <c r="F78" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="79">
@@ -3812,6 +4202,11 @@
       <c r="E79" s="6" t="n">
         <v>0.77</v>
       </c>
+      <c r="F79" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="4" t="inlineStr">
@@ -3846,6 +4241,11 @@
       <c r="E80" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F80" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="4" t="inlineStr">
@@ -3880,6 +4280,11 @@
       <c r="E81" s="6" t="n">
         <v>0.55</v>
       </c>
+      <c r="F81" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="4" t="inlineStr">
@@ -3913,6 +4318,11 @@
       </c>
       <c r="E82" s="6" t="n">
         <v>0.19</v>
+      </c>
+      <c r="F82" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="83">
@@ -3953,6 +4363,11 @@
       <c r="E83" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F83" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="4" t="inlineStr">
@@ -3987,6 +4402,11 @@
       <c r="E84" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F84" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="4" t="inlineStr">
@@ -4024,6 +4444,11 @@
       <c r="E85" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F85" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="4" t="inlineStr">
@@ -4056,6 +4481,11 @@
       <c r="E86" s="6" t="n">
         <v>0.15</v>
       </c>
+      <c r="F86" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="4" t="inlineStr">
@@ -4087,6 +4517,11 @@
       </c>
       <c r="E87" s="6" t="n">
         <v>0.04</v>
+      </c>
+      <c r="F87" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="88">
@@ -4126,6 +4561,11 @@
       </c>
       <c r="E88" s="6" t="n">
         <v>0.17</v>
+      </c>
+      <c r="F88" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="89">
@@ -4166,6 +4606,11 @@
       </c>
       <c r="E89" s="6" t="n">
         <v>0.26</v>
+      </c>
+      <c r="F89" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="90">
@@ -4211,6 +4656,11 @@
       </c>
       <c r="E90" s="6" t="n">
         <v>0.26</v>
+      </c>
+      <c r="F90" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="91">
@@ -4256,6 +4706,11 @@
       <c r="E91" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F91" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="4" t="inlineStr">
@@ -4300,6 +4755,11 @@
       <c r="E92" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F92" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="4" t="inlineStr">
@@ -4333,6 +4793,11 @@
       <c r="E93" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F93" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="4" t="inlineStr">
@@ -4362,6 +4827,11 @@
       <c r="E94" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F94" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="4" t="inlineStr">
@@ -4395,6 +4865,11 @@
       <c r="E95" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F95" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="4" t="inlineStr">
@@ -4430,6 +4905,11 @@
       <c r="E96" s="6" t="n">
         <v>0.11</v>
       </c>
+      <c r="F96" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="4" t="inlineStr">
@@ -4464,6 +4944,11 @@
       </c>
       <c r="E97" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F97" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="98">
@@ -4496,6 +4981,11 @@
       </c>
       <c r="E98" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F98" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="99">
@@ -4542,6 +5032,11 @@
       <c r="E99" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F99" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="4" t="inlineStr">
@@ -4587,6 +5082,11 @@
       <c r="E100" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F100" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="4" t="inlineStr">
@@ -4636,6 +5136,11 @@
       <c r="E101" s="6" t="n">
         <v>0.06</v>
       </c>
+      <c r="F101" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="4" t="inlineStr">
@@ -4685,6 +5190,11 @@
       <c r="E102" s="6" t="n">
         <v>0.15</v>
       </c>
+      <c r="F102" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="4" t="inlineStr">
@@ -4724,6 +5234,11 @@
       <c r="E103" s="6" t="n">
         <v>0.12</v>
       </c>
+      <c r="F103" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="4" t="inlineStr">
@@ -4753,6 +5268,11 @@
       <c r="E104" s="6" t="n">
         <v>0.4</v>
       </c>
+      <c r="F104" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="4" t="inlineStr">
@@ -4781,6 +5301,11 @@
       </c>
       <c r="E105" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F105" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="106">
@@ -4812,6 +5337,11 @@
       </c>
       <c r="E106" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F106" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="107">
@@ -4853,6 +5383,11 @@
       </c>
       <c r="E107" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F107" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="108">
@@ -4903,6 +5438,11 @@
       <c r="E108" s="6" t="n">
         <v>0.12</v>
       </c>
+      <c r="F108" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="4" t="inlineStr">
@@ -4943,6 +5483,11 @@
       </c>
       <c r="E109" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F109" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="110">
@@ -4990,6 +5535,11 @@
       </c>
       <c r="E110" s="6" t="n">
         <v>0.84</v>
+      </c>
+      <c r="F110" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="111">
@@ -5041,6 +5591,11 @@
       <c r="E111" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="F111" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="4" t="inlineStr">
@@ -5080,6 +5635,11 @@
       </c>
       <c r="E112" s="6" t="n">
         <v>0.44</v>
+      </c>
+      <c r="F112" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="113">
@@ -5126,6 +5686,11 @@
       <c r="E113" s="6" t="n">
         <v>0.3</v>
       </c>
+      <c r="F113" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="4" t="inlineStr">
@@ -5163,6 +5728,11 @@
       <c r="E114" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F114" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="4" t="inlineStr">
@@ -5202,6 +5772,11 @@
       </c>
       <c r="E115" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F115" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="116">
@@ -5250,6 +5825,11 @@
       <c r="E116" s="6" t="n">
         <v>0.38</v>
       </c>
+      <c r="F116" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="4" t="inlineStr">
@@ -5286,6 +5866,11 @@
       <c r="E117" s="6" t="n">
         <v>0.19</v>
       </c>
+      <c r="F117" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="4" t="inlineStr">
@@ -5322,6 +5907,11 @@
       <c r="E118" s="6" t="n">
         <v>0.24</v>
       </c>
+      <c r="F118" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="4" t="inlineStr">
@@ -5357,6 +5947,11 @@
       </c>
       <c r="E119" s="6" t="n">
         <v>0.07000000000000001</v>
+      </c>
+      <c r="F119" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="120">
@@ -5398,6 +5993,11 @@
       <c r="E120" s="6" t="n">
         <v>0.12</v>
       </c>
+      <c r="F120" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="4" t="inlineStr">
@@ -5438,6 +6038,11 @@
       <c r="E121" s="6" t="n">
         <v>0.27</v>
       </c>
+      <c r="F121" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="4" t="inlineStr">
@@ -5470,6 +6075,11 @@
       </c>
       <c r="E122" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F122" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="123">
@@ -5505,6 +6115,11 @@
       <c r="E123" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F123" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="4" t="inlineStr">
@@ -5541,6 +6156,11 @@
       <c r="E124" s="6" t="n">
         <v>0.67</v>
       </c>
+      <c r="F124" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="4" t="inlineStr">
@@ -5575,6 +6195,11 @@
       </c>
       <c r="E125" s="6" t="n">
         <v>0.08</v>
+      </c>
+      <c r="F125" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="126">
@@ -5617,6 +6242,11 @@
       <c r="E126" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F126" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="4" t="inlineStr">
@@ -5657,6 +6287,11 @@
       <c r="E127" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="F127" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="4" t="inlineStr">
@@ -5694,6 +6329,11 @@
       </c>
       <c r="E128" s="6" t="n">
         <v>0.14</v>
+      </c>
+      <c r="F128" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="129">
@@ -5737,6 +6377,11 @@
       <c r="E129" s="6" t="n">
         <v>0.06</v>
       </c>
+      <c r="F129" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="4" t="inlineStr">
@@ -5773,6 +6418,11 @@
       </c>
       <c r="E130" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F130" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="131">
@@ -5828,6 +6478,11 @@
       </c>
       <c r="E131" s="6" t="n">
         <v>1</v>
+      </c>
+      <c r="F131" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="132">
@@ -5887,6 +6542,11 @@
       <c r="E132" s="6" t="n">
         <v>0.55</v>
       </c>
+      <c r="F132" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="4" t="inlineStr">
@@ -5934,6 +6594,11 @@
       </c>
       <c r="E133" s="6" t="n">
         <v>1</v>
+      </c>
+      <c r="F133" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="134">
@@ -5987,6 +6652,11 @@
       <c r="E134" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="F134" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="4" t="inlineStr">
@@ -6029,6 +6699,11 @@
       <c r="E135" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F135" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="4" t="inlineStr">
@@ -6071,6 +6746,11 @@
       <c r="E136" s="6" t="n">
         <v>0.11</v>
       </c>
+      <c r="F136" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="4" t="inlineStr">
@@ -6112,6 +6792,11 @@
       <c r="E137" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F137" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="4" t="inlineStr">
@@ -6149,6 +6834,11 @@
       <c r="E138" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F138" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="4" t="inlineStr">
@@ -6180,6 +6870,11 @@
       <c r="E139" s="6" t="n">
         <v>0.25</v>
       </c>
+      <c r="F139" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="4" t="inlineStr">
@@ -6210,6 +6905,11 @@
       </c>
       <c r="E140" s="6" t="n">
         <v>0.67</v>
+      </c>
+      <c r="F140" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="141">
@@ -6246,6 +6946,11 @@
       <c r="E141" s="6" t="n">
         <v>0.34</v>
       </c>
+      <c r="F141" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="4" t="inlineStr">
@@ -6274,6 +6979,11 @@
       <c r="E142" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F142" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="4" t="inlineStr">
@@ -6305,6 +7015,11 @@
       </c>
       <c r="E143" s="6" t="n">
         <v>0.19</v>
+      </c>
+      <c r="F143" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="144">
@@ -6347,6 +7062,11 @@
       <c r="E144" s="6" t="n">
         <v>0.43</v>
       </c>
+      <c r="F144" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="4" t="inlineStr">
@@ -6384,6 +7104,11 @@
       </c>
       <c r="E145" s="6" t="n">
         <v>0.46</v>
+      </c>
+      <c r="F145" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="146">
@@ -6450,6 +7175,11 @@
       <c r="E146" s="6" t="n">
         <v>0.1</v>
       </c>
+      <c r="F146" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="4" t="inlineStr">
@@ -6504,6 +7234,11 @@
       <c r="E147" s="6" t="n">
         <v>0.05</v>
       </c>
+      <c r="F147" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="4" t="inlineStr">
@@ -6567,6 +7302,11 @@
       <c r="E148" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F148" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="4" t="inlineStr">
@@ -6625,6 +7365,11 @@
       <c r="E149" s="6" t="n">
         <v>0.14</v>
       </c>
+      <c r="F149" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="4" t="inlineStr">
@@ -6681,6 +7426,11 @@
       </c>
       <c r="E150" s="6" t="n">
         <v>0.28</v>
+      </c>
+      <c r="F150" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="151">
@@ -6728,6 +7478,11 @@
       <c r="E151" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F151" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="4" t="inlineStr">
@@ -6771,6 +7526,11 @@
       </c>
       <c r="E152" s="6" t="n">
         <v>0.5</v>
+      </c>
+      <c r="F152" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="153">
@@ -6819,6 +7579,11 @@
       <c r="E153" s="6" t="n">
         <v>0.5</v>
       </c>
+      <c r="F153" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="4" t="inlineStr">
@@ -6864,6 +7629,11 @@
       </c>
       <c r="E154" s="6" t="n">
         <v>0.17</v>
+      </c>
+      <c r="F154" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="155">
@@ -6912,6 +7682,11 @@
       <c r="E155" s="6" t="n">
         <v>0.45</v>
       </c>
+      <c r="F155" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="4" t="inlineStr">
@@ -6950,6 +7725,11 @@
       <c r="E156" s="6" t="n">
         <v>0.25</v>
       </c>
+      <c r="F156" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="4" t="inlineStr">
@@ -6989,6 +7769,11 @@
       <c r="E157" s="6" t="n">
         <v>0.38</v>
       </c>
+      <c r="F157" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="4" t="inlineStr">
@@ -7028,6 +7813,11 @@
       <c r="E158" s="6" t="n">
         <v>0.5</v>
       </c>
+      <c r="F158" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="4" t="inlineStr">
@@ -7052,6 +7842,11 @@
       <c r="E159" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F159" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="4" t="inlineStr">
@@ -7080,6 +7875,11 @@
       <c r="E160" s="6" t="n">
         <v>0.05</v>
       </c>
+      <c r="F160" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="4" t="inlineStr">
@@ -7103,6 +7903,11 @@
       </c>
       <c r="E161" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F161" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="162">
@@ -7146,6 +7951,11 @@
       <c r="E162" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F162" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="4" t="inlineStr">
@@ -7185,6 +7995,11 @@
       </c>
       <c r="E163" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F163" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="164">
@@ -7231,6 +8046,11 @@
       <c r="E164" s="6" t="n">
         <v>0.75</v>
       </c>
+      <c r="F164" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="4" t="inlineStr">
@@ -7269,6 +8089,11 @@
       </c>
       <c r="E165" s="6" t="n">
         <v>0.08</v>
+      </c>
+      <c r="F165" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="166">
@@ -7316,6 +8141,11 @@
       <c r="E166" s="6" t="n">
         <v>0.11</v>
       </c>
+      <c r="F166" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="4" t="inlineStr">
@@ -7353,6 +8183,11 @@
       <c r="E167" s="6" t="n">
         <v>0.19</v>
       </c>
+      <c r="F167" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="4" t="inlineStr">
@@ -7390,6 +8225,11 @@
       <c r="E168" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F168" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="4" t="inlineStr">
@@ -7427,6 +8267,11 @@
       <c r="E169" s="6" t="n">
         <v>0.2</v>
       </c>
+      <c r="F169" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="4" t="inlineStr">
@@ -7464,6 +8309,11 @@
       <c r="E170" s="6" t="n">
         <v>0.22</v>
       </c>
+      <c r="F170" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="4" t="inlineStr">
@@ -7497,6 +8347,11 @@
       <c r="E171" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F171" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="4" t="inlineStr">
@@ -7535,6 +8390,11 @@
       <c r="E172" s="6" t="n">
         <v>0.64</v>
       </c>
+      <c r="F172" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="4" t="inlineStr">
@@ -7571,6 +8431,11 @@
       </c>
       <c r="E173" s="6" t="n">
         <v>0.16</v>
+      </c>
+      <c r="F173" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="174">
@@ -7611,6 +8476,11 @@
       <c r="E174" s="6" t="n">
         <v>0.92</v>
       </c>
+      <c r="F174" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="4" t="inlineStr">
@@ -7647,6 +8517,11 @@
       <c r="E175" s="6" t="n">
         <v>0.44</v>
       </c>
+      <c r="F175" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="4" t="inlineStr">
@@ -7682,6 +8557,11 @@
       </c>
       <c r="E176" s="6" t="n">
         <v>0.18</v>
+      </c>
+      <c r="F176" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="177">
@@ -7726,6 +8606,11 @@
       <c r="E177" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F177" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="4" t="inlineStr">
@@ -7768,6 +8653,11 @@
       <c r="E178" s="6" t="n">
         <v>0.1</v>
       </c>
+      <c r="F178" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="4" t="inlineStr">
@@ -7804,6 +8694,11 @@
       </c>
       <c r="E179" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F179" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="180">
@@ -7847,6 +8742,11 @@
       <c r="E180" s="6" t="n">
         <v>0.26</v>
       </c>
+      <c r="F180" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="4" t="inlineStr">
@@ -7889,6 +8789,11 @@
       <c r="E181" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F181" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="4" t="inlineStr">
@@ -7922,6 +8827,11 @@
       </c>
       <c r="E182" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F182" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="183">
@@ -7967,6 +8877,11 @@
       <c r="E183" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F183" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="4" t="inlineStr">
@@ -8004,6 +8919,11 @@
       </c>
       <c r="E184" s="6" t="n">
         <v>0.18</v>
+      </c>
+      <c r="F184" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="185">
@@ -8047,6 +8967,11 @@
       </c>
       <c r="E185" s="6" t="n">
         <v>0.5</v>
+      </c>
+      <c r="F185" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="186">
@@ -8093,6 +9018,11 @@
       <c r="E186" s="6" t="n">
         <v>0.65</v>
       </c>
+      <c r="F186" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="4" t="inlineStr">
@@ -8134,6 +9064,11 @@
       <c r="E187" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F187" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="4" t="inlineStr">
@@ -8171,6 +9106,11 @@
       <c r="E188" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F188" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="4" t="inlineStr">
@@ -8198,6 +9138,11 @@
       <c r="E189" s="6" t="n">
         <v>0.6</v>
       </c>
+      <c r="F189" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="4" t="inlineStr">
@@ -8224,6 +9169,11 @@
       </c>
       <c r="E190" s="6" t="n">
         <v>0.22</v>
+      </c>
+      <c r="F190" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="191">
@@ -8268,6 +9218,11 @@
       <c r="E191" s="6" t="n">
         <v>0.32</v>
       </c>
+      <c r="F191" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="4" t="inlineStr">
@@ -8303,6 +9258,11 @@
       </c>
       <c r="E192" s="6" t="n">
         <v>0.08</v>
+      </c>
+      <c r="F192" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="193">
@@ -8340,6 +9300,11 @@
       </c>
       <c r="E193" s="6" t="n">
         <v>0.62</v>
+      </c>
+      <c r="F193" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="194">
@@ -8375,6 +9340,11 @@
       <c r="E194" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F194" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="4" t="inlineStr">
@@ -8413,6 +9383,11 @@
       <c r="E195" s="6" t="n">
         <v>0.17</v>
       </c>
+      <c r="F195" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="4" t="inlineStr">
@@ -8447,6 +9422,11 @@
       <c r="E196" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F196" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="4" t="inlineStr">
@@ -8480,6 +9460,11 @@
       <c r="E197" s="6" t="n">
         <v>0.16</v>
       </c>
+      <c r="F197" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="4" t="inlineStr">
@@ -8509,6 +9494,11 @@
       <c r="E198" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F198" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="4" t="inlineStr">
@@ -8538,6 +9528,11 @@
       <c r="E199" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F199" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="4" t="inlineStr">
@@ -8571,6 +9566,11 @@
       <c r="E200" s="6" t="n">
         <v>0.19</v>
       </c>
+      <c r="F200" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="4" t="inlineStr">
@@ -8603,6 +9603,11 @@
       </c>
       <c r="E201" s="6" t="n">
         <v>0.16</v>
+      </c>
+      <c r="F201" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="202">
@@ -8659,6 +9664,11 @@
       <c r="E202" s="6" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="F202" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="4" t="inlineStr">
@@ -8704,6 +9714,11 @@
       </c>
       <c r="E203" s="6" t="n">
         <v>0.8</v>
+      </c>
+      <c r="F203" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="204">
@@ -8758,6 +9773,11 @@
       <c r="E204" s="6" t="n">
         <v>0.88</v>
       </c>
+      <c r="F204" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="4" t="inlineStr">
@@ -8802,6 +9822,11 @@
       </c>
       <c r="E205" s="6" t="n">
         <v>0.16</v>
+      </c>
+      <c r="F205" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="206">
@@ -8849,6 +9874,11 @@
       <c r="E206" s="6" t="n">
         <v>0.75</v>
       </c>
+      <c r="F206" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="4" t="inlineStr">
@@ -8880,6 +9910,11 @@
       <c r="E207" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F207" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="4" t="inlineStr">
@@ -8915,6 +9950,11 @@
       <c r="E208" s="6" t="n">
         <v>0.08</v>
       </c>
+      <c r="F208" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="4" t="inlineStr">
@@ -8945,6 +9985,11 @@
       </c>
       <c r="E209" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F209" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="210">
@@ -8986,6 +10031,11 @@
       </c>
       <c r="E210" s="6" t="n">
         <v>0.22</v>
+      </c>
+      <c r="F210" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="211">
@@ -9035,6 +10085,11 @@
       <c r="E211" s="6" t="n">
         <v>0.62</v>
       </c>
+      <c r="F211" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="4" t="inlineStr">
@@ -9082,6 +10137,11 @@
       <c r="E212" s="6" t="n">
         <v>0.14</v>
       </c>
+      <c r="F212" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="4" t="inlineStr">
@@ -9127,6 +10187,11 @@
       <c r="E213" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F213" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="4" t="inlineStr">
@@ -9171,6 +10236,11 @@
       <c r="E214" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="F214" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="4" t="inlineStr">
@@ -9211,6 +10281,11 @@
       <c r="E215" s="6" t="n">
         <v>0.49</v>
       </c>
+      <c r="F215" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="4" t="inlineStr">
@@ -9247,6 +10322,11 @@
       <c r="E216" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F216" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="4" t="inlineStr">
@@ -9287,6 +10367,11 @@
       <c r="E217" s="6" t="n">
         <v>0.06</v>
       </c>
+      <c r="F217" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="4" t="inlineStr">
@@ -9325,6 +10410,11 @@
       </c>
       <c r="E218" s="6" t="n">
         <v>1</v>
+      </c>
+      <c r="F218" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="219">
@@ -9366,6 +10456,11 @@
       <c r="E219" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F219" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="4" t="inlineStr">
@@ -9392,6 +10487,11 @@
       </c>
       <c r="E220" s="6" t="n">
         <v>0.06</v>
+      </c>
+      <c r="F220" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="221">
@@ -9424,6 +10524,11 @@
       <c r="E221" s="6" t="n">
         <v>0.12</v>
       </c>
+      <c r="F221" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="4" t="inlineStr">
@@ -9444,7 +10549,7 @@
       </c>
       <c r="C222" s="4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[a] -&gt; [[a]]</t>
         </is>
       </c>
       <c r="D222" s="5" t="inlineStr">
@@ -9453,7 +10558,12 @@
         </is>
       </c>
       <c r="E222" s="6" t="n">
-        <v>0</v>
+        <v>0.13</v>
+      </c>
+      <c r="F222" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="223">
@@ -9481,6 +10591,11 @@
       </c>
       <c r="E223" s="6" t="n">
         <v>0.1</v>
+      </c>
+      <c r="F223" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="224">
@@ -9516,6 +10631,11 @@
       <c r="E224" s="6" t="n">
         <v>0.13</v>
       </c>
+      <c r="F224" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="4" t="inlineStr">
@@ -9550,6 +10670,11 @@
       <c r="E225" s="6" t="n">
         <v>0.16</v>
       </c>
+      <c r="F225" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="4" t="inlineStr">
@@ -9583,6 +10708,11 @@
       </c>
       <c r="E226" s="6" t="n">
         <v>0.38</v>
+      </c>
+      <c r="F226" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="227">
@@ -9622,6 +10752,11 @@
       </c>
       <c r="E227" s="6" t="n">
         <v>0.07000000000000001</v>
+      </c>
+      <c r="F227" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="228">
@@ -9664,6 +10799,11 @@
       <c r="E228" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F228" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="4" t="inlineStr">
@@ -9702,6 +10842,11 @@
       </c>
       <c r="E229" s="6" t="n">
         <v>0.2</v>
+      </c>
+      <c r="F229" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="230">
@@ -9745,6 +10890,11 @@
       <c r="E230" s="6" t="n">
         <v>0.12</v>
       </c>
+      <c r="F230" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="4" t="inlineStr">
@@ -9779,6 +10929,11 @@
       </c>
       <c r="E231" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F231" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="232">
@@ -9824,6 +10979,11 @@
       <c r="E232" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="F232" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="4" t="inlineStr">
@@ -9868,6 +11028,11 @@
       <c r="E233" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="F233" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="4" t="inlineStr">
@@ -9904,6 +11069,11 @@
       </c>
       <c r="E234" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F234" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="235">
@@ -9946,6 +11116,11 @@
       <c r="E235" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F235" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="4" t="inlineStr">
@@ -9979,6 +11154,11 @@
       </c>
       <c r="E236" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F236" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="237">
@@ -10035,6 +11215,11 @@
       <c r="E237" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="F237" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="4" t="inlineStr">
@@ -10077,6 +11262,11 @@
       <c r="E238" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F238" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="4" t="inlineStr">
@@ -10115,6 +11305,11 @@
       </c>
       <c r="E239" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F239" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="240">
@@ -10169,6 +11364,11 @@
       <c r="E240" s="6" t="n">
         <v>0.03</v>
       </c>
+      <c r="F240" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="4" t="inlineStr">
@@ -10220,6 +11420,11 @@
       <c r="E241" s="6" t="n">
         <v>0.14</v>
       </c>
+      <c r="F241" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="4" t="inlineStr">
@@ -10247,6 +11452,11 @@
       <c r="E242" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F242" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="4" t="inlineStr">
@@ -10269,6 +11479,11 @@
       </c>
       <c r="E243" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F243" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="244">
@@ -10300,6 +11515,11 @@
       </c>
       <c r="E244" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F244" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="245">
@@ -10336,6 +11556,11 @@
       </c>
       <c r="E245" s="6" t="n">
         <v>0.12</v>
+      </c>
+      <c r="F245" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="246">
@@ -10374,6 +11599,11 @@
       <c r="E246" s="6" t="n">
         <v>0.18</v>
       </c>
+      <c r="F246" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="4" t="inlineStr">
@@ -10427,6 +11657,11 @@
       </c>
       <c r="E247" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F247" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="248">
@@ -10489,6 +11724,11 @@
       <c r="E248" s="6" t="n">
         <v>0.1</v>
       </c>
+      <c r="F248" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="4" t="inlineStr">
@@ -10546,6 +11786,11 @@
       </c>
       <c r="E249" s="6" t="n">
         <v>0.04</v>
+      </c>
+      <c r="F249" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="250">
@@ -10600,6 +11845,11 @@
       <c r="E250" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F250" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="4" t="inlineStr">
@@ -10657,6 +11907,11 @@
       <c r="E251" s="6" t="n">
         <v>0.03</v>
       </c>
+      <c r="F251" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="4" t="inlineStr">
@@ -10714,6 +11969,11 @@
       <c r="E252" s="6" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="F252" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="4" t="inlineStr">
@@ -10771,6 +12031,11 @@
       <c r="E253" s="6" t="n">
         <v>0.1</v>
       </c>
+      <c r="F253" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="4" t="inlineStr">
@@ -10805,6 +12070,11 @@
       <c r="E254" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F254" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="4" t="inlineStr">
@@ -10839,6 +12109,11 @@
       <c r="E255" s="6" t="n">
         <v>0.04</v>
       </c>
+      <c r="F255" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="4" t="inlineStr">
@@ -10872,6 +12147,11 @@
       </c>
       <c r="E256" s="6" t="n">
         <v>0.22</v>
+      </c>
+      <c r="F256" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="257">
@@ -10908,6 +12188,11 @@
       <c r="E257" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="F257" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="4" t="inlineStr">
@@ -10942,6 +12227,11 @@
       </c>
       <c r="E258" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F258" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="259">
@@ -10979,6 +12269,11 @@
       <c r="E259" s="6" t="n">
         <v>0.53</v>
       </c>
+      <c r="F259" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="4" t="inlineStr">
@@ -11015,6 +12310,11 @@
       <c r="E260" s="6" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="F260" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="4" t="inlineStr">
@@ -11050,6 +12350,11 @@
       </c>
       <c r="E261" s="6" t="n">
         <v>0.35</v>
+      </c>
+      <c r="F261" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="262">
@@ -11084,6 +12389,11 @@
       <c r="E262" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F262" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="4" t="inlineStr">
@@ -11121,6 +12431,11 @@
       <c r="E263" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F263" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="4" t="inlineStr">
@@ -11155,6 +12470,11 @@
       </c>
       <c r="E264" s="6" t="n">
         <v>0.5</v>
+      </c>
+      <c r="F264" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="265">
@@ -11187,6 +12507,11 @@
       </c>
       <c r="E265" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F265" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="266">
@@ -11236,6 +12561,11 @@
       </c>
       <c r="E266" s="6" t="n">
         <v>0.28</v>
+      </c>
+      <c r="F266" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="267">
@@ -11283,6 +12613,11 @@
       <c r="E267" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F267" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="4" t="inlineStr">
@@ -11331,6 +12666,11 @@
       <c r="E268" s="6" t="n">
         <v>0.55</v>
       </c>
+      <c r="F268" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="4" t="inlineStr">
@@ -11356,6 +12696,11 @@
       </c>
       <c r="E269" s="6" t="n">
         <v>0.04</v>
+      </c>
+      <c r="F269" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="270">
@@ -11386,6 +12731,11 @@
       </c>
       <c r="E270" s="6" t="n">
         <v>0.11</v>
+      </c>
+      <c r="F270" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="271">
@@ -11417,6 +12767,11 @@
       </c>
       <c r="E271" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F271" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="272">
@@ -11455,6 +12810,11 @@
       </c>
       <c r="E272" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F272" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="273">
@@ -11498,6 +12858,11 @@
       <c r="E273" s="6" t="n">
         <v>0.63</v>
       </c>
+      <c r="F273" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="4" t="inlineStr">
@@ -11539,6 +12904,11 @@
       <c r="E274" s="6" t="n">
         <v>0.16</v>
       </c>
+      <c r="F274" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="4" t="inlineStr">
@@ -11579,6 +12949,11 @@
       </c>
       <c r="E275" s="6" t="n">
         <v>0.02</v>
+      </c>
+      <c r="F275" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="276">
@@ -11622,6 +12997,11 @@
       <c r="E276" s="6" t="n">
         <v>0.78</v>
       </c>
+      <c r="F276" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="4" t="inlineStr">
@@ -11656,6 +13036,11 @@
       </c>
       <c r="E277" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F277" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="278">
@@ -11696,6 +13081,11 @@
       <c r="E278" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F278" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="4" t="inlineStr">
@@ -11731,6 +13121,11 @@
       <c r="E279" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F279" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="4" t="inlineStr">
@@ -11769,6 +13164,11 @@
       <c r="E280" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F280" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="4" t="inlineStr">
@@ -11804,6 +13204,11 @@
       </c>
       <c r="E281" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F281" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="282">
@@ -11843,6 +13248,11 @@
       <c r="E282" s="6" t="n">
         <v>0.4</v>
       </c>
+      <c r="F282" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="4" t="inlineStr">
@@ -11879,6 +13289,11 @@
       </c>
       <c r="E283" s="6" t="n">
         <v>0.24</v>
+      </c>
+      <c r="F283" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="284">
@@ -11917,6 +13332,11 @@
       <c r="E284" s="6" t="n">
         <v>0.17</v>
       </c>
+      <c r="F284" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="4" t="inlineStr">
@@ -11954,6 +13374,11 @@
       <c r="E285" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F285" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="4" t="inlineStr">
@@ -11991,6 +13416,11 @@
       <c r="E286" s="6" t="n">
         <v>0.11</v>
       </c>
+      <c r="F286" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="4" t="inlineStr">
@@ -12028,6 +13458,11 @@
       <c r="E287" s="6" t="n">
         <v>0.17</v>
       </c>
+      <c r="F287" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="4" t="inlineStr">
@@ -12060,6 +13495,11 @@
       </c>
       <c r="E288" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F288" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="289">
@@ -12098,6 +13538,11 @@
       </c>
       <c r="E289" s="6" t="n">
         <v>0.17</v>
+      </c>
+      <c r="F289" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="290">
@@ -12138,6 +13583,11 @@
       </c>
       <c r="E290" s="6" t="n">
         <v>0.85</v>
+      </c>
+      <c r="F290" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="291">
@@ -12182,6 +13632,11 @@
       <c r="E291" s="6" t="n">
         <v>0.38</v>
       </c>
+      <c r="F291" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="4" t="inlineStr">
@@ -12208,6 +13663,11 @@
       </c>
       <c r="E292" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F292" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="293">
@@ -12236,6 +13696,11 @@
       </c>
       <c r="E293" s="6" t="n">
         <v>0.16</v>
+      </c>
+      <c r="F293" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="294">
@@ -12271,6 +13736,11 @@
       </c>
       <c r="E294" s="6" t="n">
         <v>0.4</v>
+      </c>
+      <c r="F294" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="295">
@@ -12308,6 +13778,11 @@
       <c r="E295" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="F295" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="4" t="inlineStr">
@@ -12344,6 +13819,11 @@
       <c r="E296" s="6" t="n">
         <v>0.04</v>
       </c>
+      <c r="F296" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="4" t="inlineStr">
@@ -12379,6 +13859,11 @@
       </c>
       <c r="E297" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F297" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="298">
@@ -12426,6 +13911,11 @@
       <c r="E298" s="6" t="n">
         <v>0.06</v>
       </c>
+      <c r="F298" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="4" t="inlineStr">
@@ -12468,6 +13958,11 @@
       <c r="E299" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F299" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="4" t="inlineStr">
@@ -12510,6 +14005,11 @@
       </c>
       <c r="E300" s="6" t="n">
         <v>1</v>
+      </c>
+      <c r="F300" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="301">
@@ -12555,6 +14055,11 @@
       <c r="E301" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="F301" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="4" t="inlineStr">
@@ -12597,6 +14102,11 @@
       <c r="E302" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F302" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="4" t="inlineStr">
@@ -12635,6 +14145,11 @@
       <c r="E303" s="6" t="n">
         <v>0.24</v>
       </c>
+      <c r="F303" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="4" t="inlineStr">
@@ -12672,6 +14187,11 @@
       </c>
       <c r="E304" s="6" t="n">
         <v>0.19</v>
+      </c>
+      <c r="F304" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="305">
@@ -12708,6 +14228,11 @@
       </c>
       <c r="E305" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F305" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="306">
@@ -12749,6 +14274,11 @@
       </c>
       <c r="E306" s="6" t="n">
         <v>0.31</v>
+      </c>
+      <c r="F306" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="307">
@@ -12792,6 +14322,11 @@
       <c r="E307" s="6" t="n">
         <v>0.3</v>
       </c>
+      <c r="F307" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="4" t="inlineStr">
@@ -12831,6 +14366,11 @@
       <c r="E308" s="6" t="n">
         <v>0.11</v>
       </c>
+      <c r="F308" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="4" t="inlineStr">
@@ -12870,6 +14410,11 @@
       <c r="E309" s="6" t="n">
         <v>0.16</v>
       </c>
+      <c r="F309" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="4" t="inlineStr">
@@ -12906,6 +14451,11 @@
       <c r="E310" s="6" t="n">
         <v>0.18</v>
       </c>
+      <c r="F310" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="4" t="inlineStr">
@@ -12941,6 +14491,11 @@
       </c>
       <c r="E311" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F311" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="312">
@@ -12977,6 +14532,11 @@
       <c r="E312" s="6" t="n">
         <v>0.17</v>
       </c>
+      <c r="F312" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="4" t="inlineStr">
@@ -13008,6 +14568,11 @@
       </c>
       <c r="E313" s="6" t="n">
         <v>0.04</v>
+      </c>
+      <c r="F313" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="314">
@@ -13045,6 +14610,11 @@
       <c r="E314" s="6" t="n">
         <v>0.53</v>
       </c>
+      <c r="F314" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="4" t="inlineStr">
@@ -13073,6 +14643,11 @@
       <c r="E315" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F315" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="4" t="inlineStr">
@@ -13111,6 +14686,11 @@
       <c r="E316" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F316" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="4" t="inlineStr">
@@ -13144,6 +14724,11 @@
       <c r="E317" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F317" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="4" t="inlineStr">
@@ -13176,6 +14761,11 @@
       </c>
       <c r="E318" s="6" t="n">
         <v>0.1</v>
+      </c>
+      <c r="F318" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="319">
@@ -13210,6 +14800,11 @@
       </c>
       <c r="E319" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F319" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="320">
@@ -13245,6 +14840,11 @@
       </c>
       <c r="E320" s="6" t="n">
         <v>1</v>
+      </c>
+      <c r="F320" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="321">
@@ -13282,6 +14882,11 @@
       <c r="E321" s="6" t="n">
         <v>0.88</v>
       </c>
+      <c r="F321" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="4" t="inlineStr">
@@ -13307,6 +14912,11 @@
       </c>
       <c r="E322" s="6" t="n">
         <v>0.76</v>
+      </c>
+      <c r="F322" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="323">
@@ -13337,6 +14947,11 @@
       <c r="E323" s="6" t="n">
         <v>0.15</v>
       </c>
+      <c r="F323" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="4" t="inlineStr">
@@ -13364,6 +14979,11 @@
       </c>
       <c r="E324" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F324" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="325">
@@ -13422,6 +15042,11 @@
       <c r="E325" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F325" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="4" t="inlineStr">
@@ -13462,6 +15087,11 @@
       </c>
       <c r="E326" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F326" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="327">
@@ -13508,6 +15138,11 @@
       </c>
       <c r="E327" s="6" t="n">
         <v>0.21</v>
+      </c>
+      <c r="F327" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="328">
@@ -13558,6 +15193,11 @@
       </c>
       <c r="E328" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F328" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="329">
@@ -13619,6 +15259,11 @@
       <c r="E329" s="6" t="n">
         <v>0.27</v>
       </c>
+      <c r="F329" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="4" t="inlineStr">
@@ -13653,6 +15298,11 @@
       </c>
       <c r="E330" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F330" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="331">
@@ -13700,6 +15350,11 @@
       <c r="E331" s="6" t="n">
         <v>0.18</v>
       </c>
+      <c r="F331" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="4" t="inlineStr">
@@ -13743,6 +15398,11 @@
       <c r="E332" s="6" t="n">
         <v>0.6</v>
       </c>
+      <c r="F332" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="4" t="inlineStr">
@@ -13777,6 +15437,11 @@
       </c>
       <c r="E333" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F333" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="334">
@@ -13816,6 +15481,11 @@
       <c r="E334" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F334" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="4" t="inlineStr">
@@ -13857,6 +15527,11 @@
       <c r="E335" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F335" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="4" t="inlineStr">
@@ -13897,6 +15572,11 @@
       </c>
       <c r="E336" s="6" t="n">
         <v>0.07000000000000001</v>
+      </c>
+      <c r="F336" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="337">
@@ -13951,6 +15631,11 @@
       <c r="E337" s="6" t="n">
         <v>0.78</v>
       </c>
+      <c r="F337" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="4" t="inlineStr">
@@ -13996,6 +15681,11 @@
       </c>
       <c r="E338" s="6" t="n">
         <v>0.67</v>
+      </c>
+      <c r="F338" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="339">
@@ -14058,6 +15748,11 @@
       <c r="E339" s="6" t="n">
         <v>0.49</v>
       </c>
+      <c r="F339" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="4" t="inlineStr">
@@ -14117,6 +15812,11 @@
       <c r="E340" s="6" t="n">
         <v>0.43</v>
       </c>
+      <c r="F340" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="4" t="inlineStr">
@@ -14163,6 +15863,11 @@
       <c r="E341" s="6" t="n">
         <v>0.47</v>
       </c>
+      <c r="F341" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="4" t="inlineStr">
@@ -14204,6 +15909,11 @@
       <c r="E342" s="6" t="n">
         <v>0.25</v>
       </c>
+      <c r="F342" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="4" t="inlineStr">
@@ -14245,6 +15955,11 @@
       <c r="E343" s="6" t="n">
         <v>0.1</v>
       </c>
+      <c r="F343" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="4" t="inlineStr">
@@ -14285,6 +16000,11 @@
       <c r="E344" s="6" t="n">
         <v>0.06</v>
       </c>
+      <c r="F344" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="4" t="inlineStr">
@@ -14323,6 +16043,11 @@
       </c>
       <c r="E345" s="6" t="n">
         <v>0.12</v>
+      </c>
+      <c r="F345" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="346">
@@ -14360,6 +16085,11 @@
       <c r="E346" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F346" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="4" t="inlineStr">
@@ -14400,6 +16130,11 @@
       <c r="E347" s="6" t="n">
         <v>0.12</v>
       </c>
+      <c r="F347" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="4" t="inlineStr">
@@ -14437,6 +16172,11 @@
       <c r="E348" s="6" t="n">
         <v>0.9399999999999999</v>
       </c>
+      <c r="F348" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="4" t="inlineStr">
@@ -14474,6 +16214,11 @@
       <c r="E349" s="6" t="n">
         <v>0.45</v>
       </c>
+      <c r="F349" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="4" t="inlineStr">
@@ -14510,6 +16255,11 @@
       </c>
       <c r="E350" s="6" t="n">
         <v>0.01</v>
+      </c>
+      <c r="F350" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="351">
@@ -14551,6 +16301,11 @@
       <c r="E351" s="6" t="n">
         <v>0.17</v>
       </c>
+      <c r="F351" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="4" t="inlineStr">
@@ -14603,6 +16358,11 @@
       <c r="E352" s="6" t="n">
         <v>0.12</v>
       </c>
+      <c r="F352" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="4" t="inlineStr">
@@ -14654,6 +16414,11 @@
       </c>
       <c r="E353" s="6" t="n">
         <v>0.11</v>
+      </c>
+      <c r="F353" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="354">
@@ -14705,6 +16470,11 @@
       <c r="E354" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F354" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="4" t="inlineStr">
@@ -14759,6 +16529,11 @@
       <c r="E355" s="6" t="n">
         <v>0.09</v>
       </c>
+      <c r="F355" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="4" t="inlineStr">
@@ -14810,6 +16585,11 @@
       </c>
       <c r="E356" s="6" t="n">
         <v>0.12</v>
+      </c>
+      <c r="F356" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="357">
@@ -14846,6 +16626,11 @@
       <c r="E357" s="6" t="n">
         <v>0.2</v>
       </c>
+      <c r="F357" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="4" t="inlineStr">
@@ -14876,6 +16661,11 @@
       <c r="E358" s="6" t="n">
         <v>0.2</v>
       </c>
+      <c r="F358" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="4" t="inlineStr">
@@ -14906,6 +16696,11 @@
       <c r="E359" s="6" t="n">
         <v>0.32</v>
       </c>
+      <c r="F359" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="4" t="inlineStr">
@@ -14936,6 +16731,11 @@
       <c r="E360" s="6" t="n">
         <v>0.04</v>
       </c>
+      <c r="F360" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="4" t="inlineStr">
@@ -14965,6 +16765,11 @@
       </c>
       <c r="E361" s="6" t="n">
         <v>0.05</v>
+      </c>
+      <c r="F361" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="362">
@@ -15000,6 +16805,11 @@
       <c r="E362" s="6" t="n">
         <v>0.02</v>
       </c>
+      <c r="F362" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="4" t="inlineStr">
@@ -15030,6 +16840,11 @@
       <c r="E363" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F363" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="4" t="inlineStr">
@@ -15060,6 +16875,11 @@
       <c r="E364" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F364" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="4" t="inlineStr">
@@ -15090,6 +16910,11 @@
       <c r="E365" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F365" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="4" t="inlineStr">
@@ -15123,6 +16948,11 @@
       </c>
       <c r="E366" s="6" t="n">
         <v>0.45</v>
+      </c>
+      <c r="F366" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="367">
@@ -15160,6 +16990,11 @@
       </c>
       <c r="E367" s="6" t="n">
         <v>0.18</v>
+      </c>
+      <c r="F367" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="368">
@@ -15219,6 +17054,11 @@
       <c r="E368" s="6" t="n">
         <v>0.75</v>
       </c>
+      <c r="F368" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="4" t="inlineStr">
@@ -15273,6 +17113,11 @@
       <c r="E369" s="6" t="n">
         <v>0.86</v>
       </c>
+      <c r="F369" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="4" t="inlineStr">
@@ -15322,6 +17167,11 @@
       <c r="E370" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F370" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="4" t="inlineStr">
@@ -15378,6 +17228,11 @@
       <c r="E371" s="6" t="n">
         <v>0.86</v>
       </c>
+      <c r="F371" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="4" t="inlineStr">
@@ -15435,6 +17290,11 @@
       <c r="E372" s="6" t="n">
         <v>0.67</v>
       </c>
+      <c r="F372" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="4" t="inlineStr">
@@ -15473,6 +17333,11 @@
       </c>
       <c r="E373" s="6" t="n">
         <v>0.17</v>
+      </c>
+      <c r="F373" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="374">
@@ -15515,6 +17380,11 @@
       <c r="E374" s="6" t="n">
         <v>0.74</v>
       </c>
+      <c r="F374" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="4" t="inlineStr">
@@ -15554,6 +17424,11 @@
       </c>
       <c r="E375" s="6" t="n">
         <v>0.11</v>
+      </c>
+      <c r="F375" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="376">
@@ -15598,6 +17473,11 @@
       </c>
       <c r="E376" s="6" t="n">
         <v>0.09</v>
+      </c>
+      <c r="F376" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="377">
@@ -15644,6 +17524,11 @@
       <c r="E377" s="6" t="n">
         <v>0.22</v>
       </c>
+      <c r="F377" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="4" t="inlineStr">
@@ -15684,6 +17569,11 @@
       </c>
       <c r="E378" s="6" t="n">
         <v>1</v>
+      </c>
+      <c r="F378" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="379">
@@ -15726,6 +17616,11 @@
       </c>
       <c r="E379" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F379" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="380">
@@ -15771,6 +17666,11 @@
       <c r="E380" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F380" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="4" t="inlineStr">
@@ -15812,6 +17712,11 @@
       </c>
       <c r="E381" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F381" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="382">
@@ -15853,6 +17758,11 @@
       <c r="E382" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F382" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="4" t="inlineStr">
@@ -15882,6 +17792,11 @@
       <c r="E383" s="6" t="n">
         <v>0.05</v>
       </c>
+      <c r="F383" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="4" t="inlineStr">
@@ -15911,6 +17826,11 @@
       <c r="E384" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="F384" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="4" t="inlineStr">
@@ -15940,6 +17860,11 @@
       <c r="E385" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F385" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="4" t="inlineStr">
@@ -15969,6 +17894,11 @@
       <c r="E386" s="6" t="n">
         <v>0.1</v>
       </c>
+      <c r="F386" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="4" t="inlineStr">
@@ -15997,6 +17927,11 @@
       </c>
       <c r="E387" s="6" t="n">
         <v>0.15</v>
+      </c>
+      <c r="F387" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="388">
@@ -16037,6 +17972,11 @@
       </c>
       <c r="E388" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F388" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="389">
@@ -16079,6 +18019,11 @@
       <c r="E389" s="6" t="n">
         <v>0.45</v>
       </c>
+      <c r="F389" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="4" t="inlineStr">
@@ -16116,6 +18061,11 @@
       <c r="E390" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F390" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="4" t="inlineStr">
@@ -16153,6 +18103,11 @@
       <c r="E391" s="6" t="n">
         <v>0.43</v>
       </c>
+      <c r="F391" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="4" t="inlineStr">
@@ -16186,6 +18141,11 @@
       <c r="E392" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F392" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="4" t="inlineStr">
@@ -16218,6 +18178,11 @@
       <c r="E393" s="6" t="n">
         <v>0.09</v>
       </c>
+      <c r="F393" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="4" t="inlineStr">
@@ -16250,6 +18215,11 @@
       <c r="E394" s="6" t="n">
         <v>0.14</v>
       </c>
+      <c r="F394" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="4" t="inlineStr">
@@ -16280,6 +18250,11 @@
       </c>
       <c r="E395" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F395" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="396">
@@ -16312,6 +18287,11 @@
       </c>
       <c r="E396" s="6" t="n">
         <v>0.29</v>
+      </c>
+      <c r="F396" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="397">
@@ -16356,6 +18336,11 @@
       <c r="E397" s="6" t="n">
         <v>0.03</v>
       </c>
+      <c r="F397" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="4" t="inlineStr">
@@ -16395,6 +18380,11 @@
       </c>
       <c r="E398" s="6" t="n">
         <v>0.18</v>
+      </c>
+      <c r="F398" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="399">
@@ -16435,6 +18425,11 @@
       <c r="E399" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F399" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="4" t="inlineStr">
@@ -16462,6 +18457,11 @@
       </c>
       <c r="E400" s="6" t="n">
         <v>0.15</v>
+      </c>
+      <c r="F400" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="401">
@@ -16494,6 +18494,11 @@
       <c r="E401" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="F401" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="4" t="inlineStr">
@@ -16525,6 +18530,11 @@
       <c r="E402" s="6" t="n">
         <v>0.98</v>
       </c>
+      <c r="F402" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="4" t="inlineStr">
@@ -16556,6 +18566,11 @@
       <c r="E403" s="6" t="n">
         <v>0.98</v>
       </c>
+      <c r="F403" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="4" t="inlineStr">
@@ -16583,6 +18598,11 @@
       </c>
       <c r="E404" s="6" t="n">
         <v>0.33</v>
+      </c>
+      <c r="F404" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="405">
@@ -16615,6 +18635,11 @@
       <c r="E405" s="6" t="n">
         <v>0.09</v>
       </c>
+      <c r="F405" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="4" t="inlineStr">
@@ -16645,6 +18670,11 @@
       <c r="E406" s="6" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="F406" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="4" t="inlineStr">
@@ -16674,6 +18704,11 @@
       </c>
       <c r="E407" s="6" t="n">
         <v>0.34</v>
+      </c>
+      <c r="F407" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="408">
@@ -16707,6 +18742,11 @@
       <c r="E408" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="F408" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="4" t="inlineStr">
@@ -16733,6 +18773,11 @@
       <c r="E409" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F409" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="4" t="inlineStr">
@@ -16762,6 +18807,11 @@
       </c>
       <c r="E410" s="6" t="n">
         <v>0.05</v>
+      </c>
+      <c r="F410" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="411">
@@ -16807,6 +18857,11 @@
       </c>
       <c r="E411" s="6" t="n">
         <v>0.31</v>
+      </c>
+      <c r="F411" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="412">
@@ -16855,6 +18910,11 @@
       <c r="E412" s="6" t="n">
         <v>0.4</v>
       </c>
+      <c r="F412" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="4" t="inlineStr">
@@ -16894,6 +18954,11 @@
       </c>
       <c r="E413" s="6" t="n">
         <v>0.05</v>
+      </c>
+      <c r="F413" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="414">
@@ -16937,6 +19002,11 @@
       </c>
       <c r="E414" s="6" t="n">
         <v>0.35</v>
+      </c>
+      <c r="F414" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="415">
@@ -16985,6 +19055,11 @@
       <c r="E415" s="6" t="n">
         <v>0.11</v>
       </c>
+      <c r="F415" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="4" t="inlineStr">
@@ -17027,6 +19102,11 @@
       <c r="E416" s="6" t="n">
         <v>0.97</v>
       </c>
+      <c r="F416" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="4" t="inlineStr">
@@ -17069,6 +19149,11 @@
       <c r="E417" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F417" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="4" t="inlineStr">
@@ -17110,6 +19195,11 @@
       <c r="E418" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F418" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="4" t="inlineStr">
@@ -17150,6 +19240,11 @@
       <c r="E419" s="6" t="n">
         <v>0.03</v>
       </c>
+      <c r="F419" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="4" t="inlineStr">
@@ -17189,6 +19284,11 @@
       <c r="E420" s="6" t="n">
         <v>0.01</v>
       </c>
+      <c r="F420" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="4" t="inlineStr">
@@ -17218,6 +19318,11 @@
       </c>
       <c r="E421" s="6" t="n">
         <v>0.15</v>
+      </c>
+      <c r="F421" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="422">
@@ -17250,6 +19355,11 @@
       <c r="E422" s="6" t="n">
         <v>0.28</v>
       </c>
+      <c r="F422" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="4" t="inlineStr">
@@ -17279,6 +19389,11 @@
       </c>
       <c r="E423" s="6" t="n">
         <v>0.44</v>
+      </c>
+      <c r="F423" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="424">
@@ -17308,6 +19423,11 @@
       <c r="E424" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F424" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="4" t="inlineStr">
@@ -17338,6 +19458,11 @@
       </c>
       <c r="E425" s="6" t="n">
         <v>0.4</v>
+      </c>
+      <c r="F425" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="426">
@@ -17371,6 +19496,11 @@
       <c r="E426" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F426" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="4" t="inlineStr">
@@ -17403,6 +19533,11 @@
       <c r="E427" s="6" t="n">
         <v>0.3</v>
       </c>
+      <c r="F427" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="4" t="inlineStr">
@@ -17435,6 +19570,11 @@
       <c r="E428" s="6" t="n">
         <v>0.08</v>
       </c>
+      <c r="F428" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="4" t="inlineStr">
@@ -17462,6 +19602,11 @@
       </c>
       <c r="E429" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F429" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="430">
@@ -17491,6 +19636,11 @@
       </c>
       <c r="E430" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F430" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="431">
@@ -17522,6 +19672,11 @@
       <c r="E431" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F431" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="4" t="inlineStr">
@@ -17556,6 +19711,11 @@
       <c r="E432" s="6" t="n">
         <v>0.35</v>
       </c>
+      <c r="F432" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="4" t="inlineStr">
@@ -17589,6 +19749,11 @@
       <c r="E433" s="6" t="n">
         <v>0.23</v>
       </c>
+      <c r="F433" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="4" t="inlineStr">
@@ -17617,6 +19782,11 @@
       </c>
       <c r="E434" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F434" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="435">
@@ -17659,6 +19829,11 @@
       <c r="E435" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F435" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="4" t="inlineStr">
@@ -17697,6 +19872,11 @@
       <c r="E436" s="6" t="n">
         <v>0.14</v>
       </c>
+      <c r="F436" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="4" t="inlineStr">
@@ -17731,6 +19911,11 @@
       <c r="E437" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F437" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="4" t="inlineStr">
@@ -17767,6 +19952,11 @@
       </c>
       <c r="E438" s="6" t="n">
         <v>0.57</v>
+      </c>
+      <c r="F438" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="439">
@@ -17810,6 +20000,11 @@
       <c r="E439" s="6" t="n">
         <v>0.06</v>
       </c>
+      <c r="F439" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="4" t="inlineStr">
@@ -17847,6 +20042,11 @@
       <c r="E440" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F440" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="4" t="inlineStr">
@@ -17880,6 +20080,11 @@
       </c>
       <c r="E441" s="6" t="n">
         <v>0.16</v>
+      </c>
+      <c r="F441" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="442">
@@ -17917,6 +20122,11 @@
       <c r="E442" s="6" t="n">
         <v>0.71</v>
       </c>
+      <c r="F442" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="4" t="inlineStr">
@@ -17947,6 +20157,11 @@
       </c>
       <c r="E443" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F443" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="444">
@@ -17998,6 +20213,11 @@
       <c r="E444" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F444" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="4" t="inlineStr">
@@ -18038,6 +20258,11 @@
       </c>
       <c r="E445" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F445" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="446">
@@ -18088,6 +20313,11 @@
       <c r="E446" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="F446" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="4" t="inlineStr">
@@ -18136,6 +20366,11 @@
       </c>
       <c r="E447" s="6" t="n">
         <v>0.12</v>
+      </c>
+      <c r="F447" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="448">
@@ -18184,6 +20419,11 @@
       <c r="E448" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F448" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="4" t="inlineStr">
@@ -18214,6 +20454,11 @@
       <c r="E449" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F449" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="4" t="inlineStr">
@@ -18239,6 +20484,11 @@
       </c>
       <c r="E450" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F450" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="451">
@@ -18277,6 +20527,11 @@
       <c r="E451" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F451" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="4" t="inlineStr">
@@ -18316,6 +20571,11 @@
       </c>
       <c r="E452" s="6" t="n">
         <v>0.43</v>
+      </c>
+      <c r="F452" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="453">
@@ -18358,6 +20618,11 @@
       <c r="E453" s="6" t="n">
         <v>0.11</v>
       </c>
+      <c r="F453" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="4" t="inlineStr">
@@ -18396,6 +20661,11 @@
       <c r="E454" s="6" t="n">
         <v>0.2</v>
       </c>
+      <c r="F454" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="4" t="inlineStr">
@@ -18434,6 +20704,11 @@
       <c r="E455" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F455" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" s="4" t="inlineStr">
@@ -18477,6 +20752,11 @@
       <c r="E456" s="6" t="n">
         <v>0.22</v>
       </c>
+      <c r="F456" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="4" t="inlineStr">
@@ -18514,6 +20794,11 @@
       </c>
       <c r="E457" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F457" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="458">
@@ -18559,6 +20844,11 @@
       <c r="E458" s="6" t="n">
         <v>0.13</v>
       </c>
+      <c r="F458" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="4" t="inlineStr">
@@ -18593,6 +20883,11 @@
       <c r="E459" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F459" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="4" t="inlineStr">
@@ -18631,6 +20926,11 @@
       <c r="E460" s="6" t="n">
         <v>0.06</v>
       </c>
+      <c r="F460" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="4" t="inlineStr">
@@ -18670,6 +20970,11 @@
       </c>
       <c r="E461" s="6" t="n">
         <v>1</v>
+      </c>
+      <c r="F461" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="462">
@@ -18712,6 +21017,11 @@
       <c r="E462" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="F462" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="4" t="inlineStr">
@@ -18751,6 +21061,11 @@
       <c r="E463" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F463" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="4" t="inlineStr">
@@ -18788,6 +21103,11 @@
       <c r="E464" s="6" t="n">
         <v>0.22</v>
       </c>
+      <c r="F464" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="4" t="inlineStr">
@@ -18824,6 +21144,11 @@
       </c>
       <c r="E465" s="6" t="n">
         <v>0.1</v>
+      </c>
+      <c r="F465" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="466">
@@ -18872,6 +21197,11 @@
       </c>
       <c r="E466" s="6" t="n">
         <v>0.26</v>
+      </c>
+      <c r="F466" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="467">
@@ -18923,6 +21253,11 @@
       <c r="E467" s="6" t="n">
         <v>0.97</v>
       </c>
+      <c r="F467" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="4" t="inlineStr">
@@ -18960,6 +21295,11 @@
       </c>
       <c r="E468" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F468" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="469">
@@ -19004,6 +21344,11 @@
       </c>
       <c r="E469" s="6" t="n">
         <v>0.9</v>
+      </c>
+      <c r="F469" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="470">
@@ -19056,6 +21401,11 @@
       <c r="E470" s="6" t="n">
         <v>0.12</v>
       </c>
+      <c r="F470" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="4" t="inlineStr">
@@ -19089,6 +21439,11 @@
       <c r="E471" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F471" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="4" t="inlineStr">
@@ -19117,6 +21472,11 @@
       </c>
       <c r="E472" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F472" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="473">
@@ -19161,6 +21521,11 @@
       </c>
       <c r="E473" s="6" t="n">
         <v>0.09</v>
+      </c>
+      <c r="F473" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="474">
@@ -19207,6 +21572,11 @@
       <c r="E474" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="F474" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="4" t="inlineStr">
@@ -19248,6 +21618,11 @@
       <c r="E475" s="6" t="n">
         <v>0.74</v>
       </c>
+      <c r="F475" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="4" t="inlineStr">
@@ -19287,6 +21662,11 @@
       </c>
       <c r="E476" s="6" t="n">
         <v>0.11</v>
+      </c>
+      <c r="F476" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="477">
@@ -19327,6 +21707,11 @@
       <c r="E477" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F477" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="4" t="inlineStr">
@@ -19362,6 +21747,11 @@
       <c r="E478" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="F478" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="4" t="inlineStr">
@@ -19393,6 +21783,11 @@
       <c r="E479" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F479" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" s="4" t="inlineStr">
@@ -19427,6 +21822,11 @@
       <c r="E480" s="6" t="n">
         <v>0.06</v>
       </c>
+      <c r="F480" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="4" t="inlineStr">
@@ -19461,6 +21861,11 @@
       <c r="E481" s="6" t="n">
         <v>0.12</v>
       </c>
+      <c r="F481" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="4" t="inlineStr">
@@ -19495,6 +21900,11 @@
       <c r="E482" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F482" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="4" t="inlineStr">
@@ -19529,6 +21939,11 @@
       <c r="E483" s="6" t="n">
         <v>0.73</v>
       </c>
+      <c r="F483" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="4" t="inlineStr">
@@ -19562,6 +21977,11 @@
       <c r="E484" s="6" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="F484" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" s="4" t="inlineStr">
@@ -19591,6 +22011,11 @@
       <c r="E485" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F485" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="4" t="inlineStr">
@@ -19624,6 +22049,11 @@
       <c r="E486" s="6" t="n">
         <v>0.12</v>
       </c>
+      <c r="F486" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487" s="4" t="inlineStr">
@@ -19657,6 +22087,11 @@
       <c r="E487" s="6" t="n">
         <v>0.59</v>
       </c>
+      <c r="F487" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="488">
       <c r="A488" s="4" t="inlineStr">
@@ -19686,6 +22121,11 @@
       <c r="E488" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F488" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" s="4" t="inlineStr">
@@ -19717,6 +22157,11 @@
       <c r="E489" s="6" t="n">
         <v>0.06</v>
       </c>
+      <c r="F489" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" s="4" t="inlineStr">
@@ -19748,6 +22193,11 @@
       <c r="E490" s="6" t="n">
         <v>0.22</v>
       </c>
+      <c r="F490" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="491">
       <c r="A491" s="4" t="inlineStr">
@@ -19774,6 +22224,11 @@
       </c>
       <c r="E491" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F491" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="492">
@@ -19820,6 +22275,11 @@
       </c>
       <c r="E492" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F492" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="493">
@@ -19874,6 +22334,11 @@
       <c r="E493" s="6" t="n">
         <v>0.75</v>
       </c>
+      <c r="F493" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="4" t="inlineStr">
@@ -19925,6 +22390,11 @@
       <c r="E494" s="6" t="n">
         <v>0.28</v>
       </c>
+      <c r="F494" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="495">
       <c r="A495" s="4" t="inlineStr">
@@ -19971,6 +22441,11 @@
       </c>
       <c r="E495" s="6" t="n">
         <v>0.87</v>
+      </c>
+      <c r="F495" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="496">
@@ -20019,6 +22494,11 @@
       <c r="E496" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F496" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="497">
       <c r="A497" s="4" t="inlineStr">
@@ -20059,6 +22539,11 @@
       </c>
       <c r="E497" s="6" t="n">
         <v>0.1</v>
+      </c>
+      <c r="F497" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="498">
@@ -20102,6 +22587,11 @@
       <c r="E498" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F498" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="4" t="inlineStr">
@@ -20141,6 +22631,11 @@
       <c r="E499" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="F499" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="4" t="inlineStr">
@@ -20175,6 +22670,11 @@
       </c>
       <c r="E500" s="6" t="n">
         <v>0.06</v>
+      </c>
+      <c r="F500" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="501">
@@ -20213,6 +22713,11 @@
       </c>
       <c r="E501" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F501" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="502">
@@ -20254,6 +22759,11 @@
       <c r="E502" s="6" t="n">
         <v>0.06</v>
       </c>
+      <c r="F502" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="4" t="inlineStr">
@@ -20291,6 +22801,11 @@
       <c r="E503" s="6" t="n">
         <v>0.06</v>
       </c>
+      <c r="F503" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="4" t="inlineStr">
@@ -20326,6 +22841,11 @@
       </c>
       <c r="E504" s="6" t="n">
         <v>0.55</v>
+      </c>
+      <c r="F504" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="505">
@@ -20367,6 +22887,11 @@
       <c r="E505" s="6" t="n">
         <v>0.14</v>
       </c>
+      <c r="F505" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" s="4" t="inlineStr">
@@ -20412,6 +22937,11 @@
       </c>
       <c r="E506" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F506" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="507">
@@ -20460,6 +22990,11 @@
       <c r="E507" s="6" t="n">
         <v>0.19</v>
       </c>
+      <c r="F507" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="4" t="inlineStr">
@@ -20498,6 +23033,11 @@
       </c>
       <c r="E508" s="6" t="n">
         <v>0.33</v>
+      </c>
+      <c r="F508" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="509">
@@ -20544,6 +23084,11 @@
       <c r="E509" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F509" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="4" t="inlineStr">
@@ -20586,6 +23131,11 @@
       <c r="E510" s="6" t="n">
         <v>0.91</v>
       </c>
+      <c r="F510" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="4" t="inlineStr">
@@ -20617,6 +23167,11 @@
       </c>
       <c r="E511" s="6" t="n">
         <v>0.03</v>
+      </c>
+      <c r="F511" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="512">
@@ -20651,6 +23206,11 @@
       <c r="E512" s="6" t="n">
         <v>0.55</v>
       </c>
+      <c r="F512" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="513">
       <c r="A513" s="4" t="inlineStr">
@@ -20682,6 +23242,11 @@
       </c>
       <c r="E513" s="6" t="n">
         <v>0.09</v>
+      </c>
+      <c r="F513" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="514">
@@ -20728,6 +23293,11 @@
       </c>
       <c r="E514" s="6" t="n">
         <v>0.16</v>
+      </c>
+      <c r="F514" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="515">
@@ -20778,6 +23348,11 @@
       <c r="E515" s="6" t="n">
         <v>0.23</v>
       </c>
+      <c r="F515" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="516">
       <c r="A516" s="4" t="inlineStr">
@@ -20820,6 +23395,11 @@
       <c r="E516" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F516" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="4" t="inlineStr">
@@ -20854,6 +23434,11 @@
       <c r="E517" s="6" t="n">
         <v>0.14</v>
       </c>
+      <c r="F517" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="4" t="inlineStr">
@@ -20886,6 +23471,11 @@
       </c>
       <c r="E518" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F518" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="519">
@@ -20926,6 +23516,11 @@
       <c r="E519" s="6" t="n">
         <v>0.43</v>
       </c>
+      <c r="F519" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" s="4" t="inlineStr">
@@ -20965,6 +23560,11 @@
       <c r="E520" s="6" t="n">
         <v>0.5</v>
       </c>
+      <c r="F520" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="521">
       <c r="A521" s="4" t="inlineStr">
@@ -21003,6 +23603,11 @@
       <c r="E521" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F521" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="522">
       <c r="A522" s="4" t="inlineStr">
@@ -21036,6 +23641,11 @@
       <c r="E522" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F522" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="523">
       <c r="A523" s="4" t="inlineStr">
@@ -21073,6 +23683,11 @@
       <c r="E523" s="6" t="n">
         <v>0.68</v>
       </c>
+      <c r="F523" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="524">
       <c r="A524" s="4" t="inlineStr">
@@ -21109,6 +23724,11 @@
       </c>
       <c r="E524" s="6" t="n">
         <v>0.16</v>
+      </c>
+      <c r="F524" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="525">
@@ -21143,6 +23763,11 @@
       </c>
       <c r="E525" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F525" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="526">
@@ -21180,6 +23805,11 @@
       </c>
       <c r="E526" s="6" t="n">
         <v>0.5</v>
+      </c>
+      <c r="F526" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="527">
@@ -21219,6 +23849,11 @@
       <c r="E527" s="6" t="n">
         <v>0.3</v>
       </c>
+      <c r="F527" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="4" t="inlineStr">
@@ -21252,6 +23887,11 @@
       </c>
       <c r="E528" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F528" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="529">
@@ -21302,6 +23942,11 @@
       <c r="E529" s="6" t="n">
         <v>0.12</v>
       </c>
+      <c r="F529" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="530">
       <c r="A530" s="4" t="inlineStr">
@@ -21345,6 +23990,11 @@
       </c>
       <c r="E530" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F530" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="531">
@@ -21396,6 +24046,11 @@
       <c r="E531" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="F531" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="532">
       <c r="A532" s="4" t="inlineStr">
@@ -21444,6 +24099,11 @@
       </c>
       <c r="E532" s="6" t="n">
         <v>0.36</v>
+      </c>
+      <c r="F532" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="533">
@@ -21495,6 +24155,11 @@
       <c r="E533" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="F533" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="4" t="inlineStr">
@@ -21524,6 +24189,11 @@
       <c r="E534" s="6" t="n">
         <v>0.16</v>
       </c>
+      <c r="F534" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="4" t="inlineStr">
@@ -21553,6 +24223,11 @@
       <c r="E535" s="6" t="n">
         <v>0.04</v>
       </c>
+      <c r="F535" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="4" t="inlineStr">
@@ -21577,6 +24252,11 @@
       </c>
       <c r="E536" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F536" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="537">
@@ -21613,6 +24293,11 @@
       <c r="E537" s="6" t="n">
         <v>0.23</v>
       </c>
+      <c r="F537" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="538">
       <c r="A538" s="4" t="inlineStr">
@@ -21646,6 +24331,11 @@
       <c r="E538" s="6" t="n">
         <v>0.26</v>
       </c>
+      <c r="F538" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="539">
       <c r="A539" s="4" t="inlineStr">
@@ -21675,6 +24365,11 @@
       <c r="E539" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F539" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="540">
       <c r="A540" s="4" t="inlineStr">
@@ -21707,6 +24402,11 @@
       </c>
       <c r="E540" s="6" t="n">
         <v>0.34</v>
+      </c>
+      <c r="F540" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="541">
@@ -21743,6 +24443,11 @@
       <c r="E541" s="6" t="n">
         <v>0.59</v>
       </c>
+      <c r="F541" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="542">
       <c r="A542" s="4" t="inlineStr">
@@ -21777,6 +24482,11 @@
       </c>
       <c r="E542" s="6" t="n">
         <v>0.29</v>
+      </c>
+      <c r="F542" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="543">
@@ -21815,6 +24525,11 @@
       <c r="E543" s="6" t="n">
         <v>0.4</v>
       </c>
+      <c r="F543" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="544">
       <c r="A544" s="4" t="inlineStr">
@@ -21849,6 +24564,11 @@
       </c>
       <c r="E544" s="6" t="n">
         <v>0.07000000000000001</v>
+      </c>
+      <c r="F544" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="545">
@@ -21894,6 +24614,11 @@
       <c r="E545" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F545" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="546">
       <c r="A546" s="4" t="inlineStr">
@@ -21928,6 +24653,11 @@
       </c>
       <c r="E546" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F546" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="547">
@@ -21972,6 +24702,11 @@
       <c r="E547" s="6" t="n">
         <v>0.67</v>
       </c>
+      <c r="F547" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="548">
       <c r="A548" s="4" t="inlineStr">
@@ -22014,6 +24749,11 @@
       <c r="E548" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F548" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="549">
       <c r="A549" s="4" t="inlineStr">
@@ -22053,6 +24793,11 @@
       <c r="E549" s="6" t="n">
         <v>0.55</v>
       </c>
+      <c r="F549" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="550">
       <c r="A550" s="4" t="inlineStr">
@@ -22091,6 +24836,11 @@
       <c r="E550" s="6" t="n">
         <v>0.14</v>
       </c>
+      <c r="F550" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="551">
       <c r="A551" s="4" t="inlineStr">
@@ -22129,6 +24879,11 @@
       <c r="E551" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F551" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="552">
       <c r="A552" s="4" t="inlineStr">
@@ -22160,6 +24915,11 @@
       <c r="E552" s="6" t="n">
         <v>0.14</v>
       </c>
+      <c r="F552" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="553">
       <c r="A553" s="4" t="inlineStr">
@@ -22190,6 +24950,11 @@
       </c>
       <c r="E553" s="6" t="n">
         <v>0.43</v>
+      </c>
+      <c r="F553" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="554">
@@ -22224,6 +24989,11 @@
       <c r="E554" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F554" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="555">
       <c r="A555" s="4" t="inlineStr">
@@ -22259,6 +25029,11 @@
       </c>
       <c r="E555" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F555" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="556">
@@ -22297,6 +25072,11 @@
       <c r="E556" s="6" t="n">
         <v>0.09</v>
       </c>
+      <c r="F556" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="557">
       <c r="A557" s="4" t="inlineStr">
@@ -22330,6 +25110,11 @@
       <c r="E557" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F557" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="558">
       <c r="A558" s="4" t="inlineStr">
@@ -22362,6 +25147,11 @@
       <c r="E558" s="6" t="n">
         <v>0.08</v>
       </c>
+      <c r="F558" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="559">
       <c r="A559" s="4" t="inlineStr">
@@ -22395,6 +25185,11 @@
       <c r="E559" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F559" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="560">
       <c r="A560" s="4" t="inlineStr">
@@ -22423,6 +25218,11 @@
       </c>
       <c r="E560" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F560" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="561">
@@ -22462,6 +25262,11 @@
       <c r="E561" s="6" t="n">
         <v>0.36</v>
       </c>
+      <c r="F561" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="562">
       <c r="A562" s="4" t="inlineStr">
@@ -22497,6 +25302,11 @@
       <c r="E562" s="6" t="n">
         <v>0.17</v>
       </c>
+      <c r="F562" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="563">
       <c r="A563" s="4" t="inlineStr">
@@ -22530,6 +25340,11 @@
       </c>
       <c r="E563" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F563" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="564">
@@ -22562,6 +25377,11 @@
       <c r="E564" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F564" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="565">
       <c r="A565" s="4" t="inlineStr">
@@ -22593,6 +25413,11 @@
       <c r="E565" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F565" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="566">
       <c r="A566" s="4" t="inlineStr">
@@ -22627,6 +25452,11 @@
       </c>
       <c r="E566" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F566" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="567">
@@ -22669,6 +25499,11 @@
       </c>
       <c r="E567" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F567" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="568">
@@ -22713,6 +25548,11 @@
       <c r="E568" s="6" t="n">
         <v>0.17</v>
       </c>
+      <c r="F568" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="569">
       <c r="A569" s="4" t="inlineStr">
@@ -22755,6 +25595,11 @@
       <c r="E569" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F569" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="570">
       <c r="A570" s="4" t="inlineStr">
@@ -22790,6 +25635,11 @@
       <c r="E570" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F570" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="571">
       <c r="A571" s="4" t="inlineStr">
@@ -22829,6 +25679,11 @@
       <c r="E571" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F571" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="572">
       <c r="A572" s="4" t="inlineStr">
@@ -22862,6 +25717,11 @@
       <c r="E572" s="6" t="n">
         <v>0.05</v>
       </c>
+      <c r="F572" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="573">
       <c r="A573" s="4" t="inlineStr">
@@ -22892,6 +25752,11 @@
       </c>
       <c r="E573" s="6" t="n">
         <v>0.12</v>
+      </c>
+      <c r="F573" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="574">
@@ -22922,6 +25787,11 @@
       <c r="E574" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F574" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="575">
       <c r="A575" s="4" t="inlineStr">
@@ -22953,6 +25823,11 @@
       <c r="E575" s="6" t="n">
         <v>0.17</v>
       </c>
+      <c r="F575" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="576">
       <c r="A576" s="4" t="inlineStr">
@@ -22983,6 +25858,11 @@
       </c>
       <c r="E576" s="6" t="n">
         <v>0.04</v>
+      </c>
+      <c r="F576" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="577">
@@ -23018,6 +25898,11 @@
       </c>
       <c r="E577" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F577" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="578">
@@ -23057,6 +25942,11 @@
       <c r="E578" s="6" t="n">
         <v>0.24</v>
       </c>
+      <c r="F578" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="579">
       <c r="A579" s="4" t="inlineStr">
@@ -23091,6 +25981,11 @@
       <c r="E579" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F579" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="580">
       <c r="A580" s="4" t="inlineStr">
@@ -23136,6 +26031,11 @@
       <c r="E580" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F580" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="581">
       <c r="A581" s="4" t="inlineStr">
@@ -23179,6 +26079,11 @@
       <c r="E581" s="6" t="n">
         <v>0.67</v>
       </c>
+      <c r="F581" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="582">
       <c r="A582" s="4" t="inlineStr">
@@ -23220,6 +26125,11 @@
       </c>
       <c r="E582" s="6" t="n">
         <v>1</v>
+      </c>
+      <c r="F582" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="583">
@@ -23263,6 +26173,11 @@
       </c>
       <c r="E583" s="6" t="n">
         <v>0.38</v>
+      </c>
+      <c r="F583" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="584">
@@ -23306,6 +26221,11 @@
       <c r="E584" s="6" t="n">
         <v>0.28</v>
       </c>
+      <c r="F584" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="585">
       <c r="A585" s="4" t="inlineStr">
@@ -23348,6 +26268,11 @@
       <c r="E585" s="6" t="n">
         <v>0.16</v>
       </c>
+      <c r="F585" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="586">
       <c r="A586" s="4" t="inlineStr">
@@ -23386,6 +26311,11 @@
       <c r="E586" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F586" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="587">
       <c r="A587" s="4" t="inlineStr">
@@ -23428,6 +26358,11 @@
       <c r="E587" s="6" t="n">
         <v>0.22</v>
       </c>
+      <c r="F587" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="588">
       <c r="A588" s="4" t="inlineStr">
@@ -23465,6 +26400,11 @@
       </c>
       <c r="E588" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F588" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="589">
@@ -23508,6 +26448,11 @@
       <c r="E589" s="6" t="n">
         <v>0.96</v>
       </c>
+      <c r="F589" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="590">
       <c r="A590" s="4" t="inlineStr">
@@ -23550,6 +26495,11 @@
       <c r="E590" s="6" t="n">
         <v>0.75</v>
       </c>
+      <c r="F590" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="591">
       <c r="A591" s="4" t="inlineStr">
@@ -23590,6 +26540,11 @@
       </c>
       <c r="E591" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F591" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="592">
@@ -23633,6 +26588,11 @@
       <c r="E592" s="6" t="n">
         <v>0.93</v>
       </c>
+      <c r="F592" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="593">
       <c r="A593" s="4" t="inlineStr">
@@ -23674,6 +26634,11 @@
       <c r="E593" s="6" t="n">
         <v>0.19</v>
       </c>
+      <c r="F593" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="594">
       <c r="A594" s="4" t="inlineStr">
@@ -23715,6 +26680,11 @@
       <c r="E594" s="6" t="n">
         <v>0.35</v>
       </c>
+      <c r="F594" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="595">
       <c r="A595" s="4" t="inlineStr">
@@ -23755,6 +26725,11 @@
       </c>
       <c r="E595" s="6" t="n">
         <v>0.12</v>
+      </c>
+      <c r="F595" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="596">
@@ -23792,6 +26767,11 @@
       <c r="E596" s="6" t="n">
         <v>0.14</v>
       </c>
+      <c r="F596" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="597">
       <c r="A597" s="4" t="inlineStr">
@@ -23828,6 +26808,11 @@
       <c r="E597" s="6" t="n">
         <v>0.13</v>
       </c>
+      <c r="F597" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="598">
       <c r="A598" s="4" t="inlineStr">
@@ -23880,6 +26865,11 @@
       <c r="E598" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F598" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="599">
       <c r="A599" s="4" t="inlineStr">
@@ -23936,6 +26926,11 @@
       <c r="E599" s="6" t="n">
         <v>0.16</v>
       </c>
+      <c r="F599" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="600">
       <c r="A600" s="4" t="inlineStr">
@@ -23991,6 +26986,11 @@
       </c>
       <c r="E600" s="6" t="n">
         <v>0.02</v>
+      </c>
+      <c r="F600" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="601">
@@ -24026,6 +27026,11 @@
       <c r="E601" s="6" t="n">
         <v>0.15</v>
       </c>
+      <c r="F601" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="602">
       <c r="A602" s="4" t="inlineStr">
@@ -24052,6 +27057,11 @@
       </c>
       <c r="E602" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F602" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="603">
@@ -24087,6 +27097,11 @@
       <c r="E603" s="6" t="n">
         <v>0.22</v>
       </c>
+      <c r="F603" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="604">
       <c r="A604" s="4" t="inlineStr">
@@ -24118,6 +27133,11 @@
       <c r="E604" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F604" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
